--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H2">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I2">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J2">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.115185</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N2">
-        <v>0.345555</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O2">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P2">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q2">
-        <v>0.30523495149</v>
+        <v>51.55875595746956</v>
       </c>
       <c r="R2">
-        <v>2.74711456341</v>
+        <v>464.0288036172261</v>
       </c>
       <c r="S2">
-        <v>0.0007897200425338292</v>
+        <v>0.2858383057897848</v>
       </c>
       <c r="T2">
-        <v>0.000789720042533829</v>
+        <v>0.2858383057897848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.649954</v>
+        <v>2.223931333333333</v>
       </c>
       <c r="H3">
-        <v>7.949862</v>
+        <v>6.671794</v>
       </c>
       <c r="I3">
-        <v>0.8061096261198654</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="J3">
-        <v>0.8061096261198653</v>
+        <v>0.53738445011719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.29271333333334</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N3">
-        <v>225.87814</v>
+        <v>61.206782</v>
       </c>
       <c r="O3">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P3">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q3">
-        <v>199.52222686852</v>
+        <v>45.37322676743422</v>
       </c>
       <c r="R3">
-        <v>1795.70004181668</v>
+        <v>408.359040906908</v>
       </c>
       <c r="S3">
-        <v>0.5162144791082816</v>
+        <v>0.2515461443274054</v>
       </c>
       <c r="T3">
-        <v>0.5162144791082814</v>
+        <v>0.2515461443274054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.649954</v>
+        <v>0.409054</v>
       </c>
       <c r="H4">
-        <v>7.949862</v>
+        <v>1.227162</v>
       </c>
       <c r="I4">
-        <v>0.8061096261198654</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J4">
-        <v>0.8061096261198653</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.16761233333333</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N4">
-        <v>126.502837</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O4">
-        <v>0.3586428168097091</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P4">
-        <v>0.3586428168097091</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q4">
-        <v>111.742232973166</v>
+        <v>9.483348268588667</v>
       </c>
       <c r="R4">
-        <v>1005.680096758494</v>
+        <v>85.35013441729799</v>
       </c>
       <c r="S4">
-        <v>0.28910542696905</v>
+        <v>0.05257505058003947</v>
       </c>
       <c r="T4">
-        <v>0.28910542696905</v>
+        <v>0.05257505058003946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>1.227162</v>
       </c>
       <c r="I5">
-        <v>0.1244332418611174</v>
+        <v>0.09884264660670146</v>
       </c>
       <c r="J5">
-        <v>0.1244332418611173</v>
+        <v>0.09884264660670145</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.115185</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N5">
-        <v>0.345555</v>
+        <v>61.206782</v>
       </c>
       <c r="O5">
-        <v>0.0009796682944168203</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P5">
-        <v>0.0009796682944168203</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q5">
-        <v>0.04711688499</v>
+        <v>8.345626334742667</v>
       </c>
       <c r="R5">
-        <v>0.42405196491</v>
+        <v>75.11063701268399</v>
       </c>
       <c r="S5">
-        <v>0.0001219033018228365</v>
+        <v>0.04626759602666201</v>
       </c>
       <c r="T5">
-        <v>0.0001219033018228365</v>
+        <v>0.046267596026662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.409054</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H6">
-        <v>1.227162</v>
+        <v>1.028386</v>
       </c>
       <c r="I6">
-        <v>0.1244332418611174</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J6">
-        <v>0.1244332418611173</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.29271333333334</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N6">
-        <v>225.87814</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O6">
-        <v>0.640377514895874</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P6">
-        <v>0.640377514895874</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q6">
-        <v>30.79878555985333</v>
+        <v>7.94723320355489</v>
       </c>
       <c r="R6">
-        <v>277.18907003868</v>
+        <v>71.52509883199401</v>
       </c>
       <c r="S6">
-        <v>0.07968425019345958</v>
+        <v>0.04405893106680656</v>
       </c>
       <c r="T6">
-        <v>0.07968425019345957</v>
+        <v>0.04405893106680656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.409054</v>
+        <v>0.3427953333333333</v>
       </c>
       <c r="H7">
-        <v>1.227162</v>
+        <v>1.028386</v>
       </c>
       <c r="I7">
-        <v>0.1244332418611174</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="J7">
-        <v>0.1244332418611173</v>
+        <v>0.08283209060684676</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.16761233333333</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N7">
-        <v>126.502837</v>
+        <v>61.206782</v>
       </c>
       <c r="O7">
-        <v>0.3586428168097091</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P7">
-        <v>0.3586428168097091</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q7">
-        <v>17.24883049539933</v>
+        <v>6.993799745983556</v>
       </c>
       <c r="R7">
-        <v>155.239474458594</v>
+        <v>62.94419771385201</v>
       </c>
       <c r="S7">
-        <v>0.04462708836583494</v>
+        <v>0.03877315954004022</v>
       </c>
       <c r="T7">
-        <v>0.04462708836583493</v>
+        <v>0.03877315954004022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,51 +912,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.152407</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H8">
-        <v>0.457221</v>
+        <v>0.26091</v>
       </c>
       <c r="I8">
-        <v>0.04636184242747245</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J8">
-        <v>0.04636184242747245</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.115185</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N8">
-        <v>0.345555</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O8">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P8">
-        <v>0.0009796682944168203</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q8">
-        <v>0.017555000295</v>
+        <v>2.01627853271</v>
       </c>
       <c r="R8">
-        <v>0.157995002655</v>
+        <v>18.14650679439</v>
       </c>
       <c r="S8">
-        <v>4.541922709694331E-05</v>
+        <v>0.01117811376724352</v>
       </c>
       <c r="T8">
-        <v>4.541922709694331E-05</v>
+        <v>0.01117811376724352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.152407</v>
+        <v>0.08696999999999999</v>
       </c>
       <c r="H9">
-        <v>0.457221</v>
+        <v>0.26091</v>
       </c>
       <c r="I9">
-        <v>0.04636184242747245</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="J9">
-        <v>0.04636184242747245</v>
+        <v>0.02101518375418606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.29271333333334</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N9">
-        <v>225.87814</v>
+        <v>61.206782</v>
       </c>
       <c r="O9">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P9">
-        <v>0.640377514895874</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q9">
-        <v>11.47513656099333</v>
+        <v>1.77438461018</v>
       </c>
       <c r="R9">
-        <v>103.27622904894</v>
+        <v>15.96946149162</v>
       </c>
       <c r="S9">
-        <v>0.0296890814396989</v>
+        <v>0.00983706998694254</v>
       </c>
       <c r="T9">
-        <v>0.0296890814396989</v>
+        <v>0.00983706998694254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.152407</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H10">
-        <v>0.457221</v>
+        <v>3.227057</v>
       </c>
       <c r="I10">
-        <v>0.04636184242747245</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J10">
-        <v>0.04636184242747245</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.16761233333333</v>
+        <v>23.18360966666667</v>
       </c>
       <c r="N10">
-        <v>126.502837</v>
+        <v>69.55082900000001</v>
       </c>
       <c r="O10">
-        <v>0.3586428168097091</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="P10">
-        <v>0.3586428168097091</v>
+        <v>0.5319065442393255</v>
       </c>
       <c r="Q10">
-        <v>6.426639292886333</v>
+        <v>24.93827662002812</v>
       </c>
       <c r="R10">
-        <v>57.839753635977</v>
+        <v>224.444489580253</v>
       </c>
       <c r="S10">
-        <v>0.0166273417606766</v>
+        <v>0.1382561430354513</v>
       </c>
       <c r="T10">
-        <v>0.0166273417606766</v>
+        <v>0.1382561430354513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05153333333333334</v>
+        <v>1.075685666666667</v>
       </c>
       <c r="H11">
-        <v>0.1546</v>
+        <v>3.227057</v>
       </c>
       <c r="I11">
-        <v>0.015676315915689</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="J11">
-        <v>0.015676315915689</v>
+        <v>0.2599256289150758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.115185</v>
+        <v>20.40226066666667</v>
       </c>
       <c r="N11">
-        <v>0.345555</v>
+        <v>61.206782</v>
       </c>
       <c r="O11">
-        <v>0.0009796682944168203</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="P11">
-        <v>0.0009796682944168203</v>
+        <v>0.4680934557606746</v>
       </c>
       <c r="Q11">
-        <v>0.005935867000000001</v>
+        <v>21.94641936673045</v>
       </c>
       <c r="R11">
-        <v>0.053422803</v>
+        <v>197.517774300574</v>
       </c>
       <c r="S11">
-        <v>1.53575896758623E-05</v>
+        <v>0.1216694858796245</v>
       </c>
       <c r="T11">
-        <v>1.53575896758623E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.05153333333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.1546</v>
-      </c>
-      <c r="I12">
-        <v>0.015676315915689</v>
-      </c>
-      <c r="J12">
-        <v>0.015676315915689</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>75.29271333333334</v>
-      </c>
-      <c r="N12">
-        <v>225.87814</v>
-      </c>
-      <c r="O12">
-        <v>0.640377514895874</v>
-      </c>
-      <c r="P12">
-        <v>0.640377514895874</v>
-      </c>
-      <c r="Q12">
-        <v>3.880084493777779</v>
-      </c>
-      <c r="R12">
-        <v>34.920760444</v>
-      </c>
-      <c r="S12">
-        <v>0.01003876022881156</v>
-      </c>
-      <c r="T12">
-        <v>0.01003876022881156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.05153333333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.1546</v>
-      </c>
-      <c r="I13">
-        <v>0.015676315915689</v>
-      </c>
-      <c r="J13">
-        <v>0.015676315915689</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>42.16761233333333</v>
-      </c>
-      <c r="N13">
-        <v>126.502837</v>
-      </c>
-      <c r="O13">
-        <v>0.3586428168097091</v>
-      </c>
-      <c r="P13">
-        <v>0.3586428168097091</v>
-      </c>
-      <c r="Q13">
-        <v>2.173037622244445</v>
-      </c>
-      <c r="R13">
-        <v>19.5573386002</v>
-      </c>
-      <c r="S13">
-        <v>0.005622198097201578</v>
-      </c>
-      <c r="T13">
-        <v>0.005622198097201578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.02438866666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.07316599999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.007418973675855766</v>
-      </c>
-      <c r="J14">
-        <v>0.007418973675855765</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.115185</v>
-      </c>
-      <c r="N14">
-        <v>0.345555</v>
-      </c>
-      <c r="O14">
-        <v>0.0009796682944168203</v>
-      </c>
-      <c r="P14">
-        <v>0.0009796682944168203</v>
-      </c>
-      <c r="Q14">
-        <v>0.00280920857</v>
-      </c>
-      <c r="R14">
-        <v>0.02528287713</v>
-      </c>
-      <c r="S14">
-        <v>7.268133287348906E-06</v>
-      </c>
-      <c r="T14">
-        <v>7.268133287348906E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.02438866666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.07316599999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.007418973675855766</v>
-      </c>
-      <c r="J15">
-        <v>0.007418973675855765</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>75.29271333333334</v>
-      </c>
-      <c r="N15">
-        <v>225.87814</v>
-      </c>
-      <c r="O15">
-        <v>0.640377514895874</v>
-      </c>
-      <c r="P15">
-        <v>0.640377514895874</v>
-      </c>
-      <c r="Q15">
-        <v>1.836288887915556</v>
-      </c>
-      <c r="R15">
-        <v>16.52659999124</v>
-      </c>
-      <c r="S15">
-        <v>0.004750943925622423</v>
-      </c>
-      <c r="T15">
-        <v>0.004750943925622422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.02438866666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.07316599999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.007418973675855766</v>
-      </c>
-      <c r="J16">
-        <v>0.007418973675855765</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>42.16761233333333</v>
-      </c>
-      <c r="N16">
-        <v>126.502837</v>
-      </c>
-      <c r="O16">
-        <v>0.3586428168097091</v>
-      </c>
-      <c r="P16">
-        <v>0.3586428168097091</v>
-      </c>
-      <c r="Q16">
-        <v>1.028411841326889</v>
-      </c>
-      <c r="R16">
-        <v>9.255706571942</v>
-      </c>
-      <c r="S16">
-        <v>0.002660761616945993</v>
-      </c>
-      <c r="T16">
-        <v>0.002660761616945993</v>
+        <v>0.1216694858796245</v>
       </c>
     </row>
   </sheetData>
